--- a/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="71">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t xml:space="preserve">1521498048285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521541315482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521541350504</t>
   </si>
 </sst>
 </file>
@@ -339,18 +345,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C223" activeCellId="0" sqref="C223"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E312" activeCellId="0" sqref="E312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.01"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4243902439024"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3268292682927"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5512195121951"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8731707317073"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,10 +3871,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="n">
+        <v>1521499775760</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="n">
+        <v>1521499775760</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="74">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t xml:space="preserve">1521541350504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521597494713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521597631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521597641121</t>
   </si>
 </sst>
 </file>
@@ -345,18 +354,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E312" activeCellId="0" sqref="E312"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E325" activeCellId="0" sqref="E325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4243902439024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3268292682927"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5512195121951"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8731707317073"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,10 +3902,43 @@
         <v>2</v>
       </c>
     </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="n">
+        <v>1521499775761</v>
+      </c>
+      <c r="C322" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="n">
+        <v>1521499775761</v>
+      </c>
+      <c r="C323" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="n">
+        <v>1521499775761</v>
+      </c>
+      <c r="C324" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="79">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">1521597641121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521838701113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521838435516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521838677935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521838714876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521838730541</t>
   </si>
 </sst>
 </file>
@@ -354,18 +369,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E325" activeCellId="0" sqref="E325"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F325" activeCellId="0" sqref="F325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.87"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7121951219512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7463414634146"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9414634146341"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.7756097560976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,10 +3950,98 @@
         <v>2</v>
       </c>
     </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="n">
+        <v>1521499775762</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="n">
+        <v>1521499775762</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="n">
+        <v>1521499775763</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="n">
+        <v>1521499775764</v>
+      </c>
+      <c r="C328" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="n">
+        <v>1521499775764</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="n">
+        <v>1521499775765</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="n">
+        <v>1521499775766</v>
+      </c>
+      <c r="C331" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="n">
+        <v>1521499775766</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D332" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="95">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -178,63 +178,63 @@
     <t xml:space="preserve">1521454710255</t>
   </si>
   <si>
+    <t xml:space="preserve">1521454733261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521454744859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521454760902</t>
+  </si>
+  <si>
     <t xml:space="preserve">152145778182347</t>
   </si>
   <si>
-    <t xml:space="preserve">1521454733261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521454744859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521454760902</t>
-  </si>
-  <si>
     <t xml:space="preserve">1521458240010</t>
   </si>
   <si>
+    <t xml:space="preserve">1521503343596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503358293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503373201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503422981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503458395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503397413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503410430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521503440534</t>
+  </si>
+  <si>
     <t xml:space="preserve">152148536524733</t>
   </si>
   <si>
-    <t xml:space="preserve">1521503343596</t>
+    <t xml:space="preserve">1521487912513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521488339705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521488352430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521488375822</t>
   </si>
   <si>
     <t xml:space="preserve">152145922056948</t>
   </si>
   <si>
-    <t xml:space="preserve">1521503358293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503373201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503422981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503458395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503397413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503410430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521503440534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521487912513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521488339705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521488352430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521488375822</t>
-  </si>
-  <si>
     <t xml:space="preserve">1521484840019</t>
   </si>
   <si>
@@ -247,49 +247,49 @@
     <t xml:space="preserve">1521485021620</t>
   </si>
   <si>
+    <t xml:space="preserve">1521485030413</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149749486339</t>
   </si>
   <si>
+    <t xml:space="preserve">1521497913635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521498006530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521498024572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521498034297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521498048285</t>
+  </si>
+  <si>
     <t xml:space="preserve">152154108741610</t>
   </si>
   <si>
+    <t xml:space="preserve">1521541315482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521541350504</t>
+  </si>
+  <si>
     <t xml:space="preserve">152159737628112</t>
   </si>
   <si>
+    <t xml:space="preserve">1521597494713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521597631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521597641121</t>
+  </si>
+  <si>
     <t xml:space="preserve">152183749892742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521485030413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521497913635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521498006530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521498024572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521498034297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521498048285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521541315482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521541350504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521597494713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521597631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1521597641121</t>
   </si>
   <si>
     <t xml:space="preserve">1521838701113</t>
@@ -419,8 +419,8 @@
   </sheetPr>
   <dimension ref="A1:E332"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B332" activeCellId="0" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3814,7 +3814,7 @@
         <v>1521499775396</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>51</v>
@@ -3828,10 +3828,10 @@
         <v>1521499775397</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>9</v>
@@ -3842,10 +3842,10 @@
         <v>1521499775406</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>2</v>
@@ -3856,10 +3856,10 @@
         <v>1521499775406</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>5</v>
@@ -3870,10 +3870,10 @@
         <v>1521499775406</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>1</v>
@@ -3884,10 +3884,10 @@
         <v>1521499775414</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>4</v>
@@ -3898,7 +3898,7 @@
         <v>1521499775418</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>56</v>
@@ -3912,7 +3912,7 @@
         <v>1521499775424</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>56</v>
@@ -3926,7 +3926,7 @@
         <v>1521499775432</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>56</v>
@@ -3940,10 +3940,10 @@
         <v>1521499775432</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>1</v>
@@ -3954,10 +3954,10 @@
         <v>1521499775432</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>6</v>
@@ -3968,10 +3968,10 @@
         <v>1521499775442</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>19</v>
@@ -3982,10 +3982,10 @@
         <v>1521499775450</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E254" s="0" t="n">
         <v>20</v>
@@ -3996,10 +3996,10 @@
         <v>1521499775481</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E255" s="0" t="n">
         <v>5</v>
@@ -4010,10 +4010,10 @@
         <v>1521499775481</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E256" s="0" t="n">
         <v>8</v>
@@ -4024,10 +4024,10 @@
         <v>1521499775481</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>3</v>
@@ -4038,10 +4038,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>3</v>
@@ -4052,10 +4052,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E259" s="0" t="n">
         <v>1</v>
@@ -4066,10 +4066,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>2</v>
@@ -4080,10 +4080,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>4</v>
@@ -4094,10 +4094,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E262" s="0" t="n">
         <v>5</v>
@@ -4108,10 +4108,10 @@
         <v>1521499775486</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>5</v>
@@ -4122,10 +4122,10 @@
         <v>1521499775517</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>5</v>
@@ -4136,10 +4136,10 @@
         <v>1521499775522</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E265" s="0" t="n">
         <v>9</v>
@@ -4150,10 +4150,10 @@
         <v>1521499775522</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>3</v>
@@ -4164,10 +4164,10 @@
         <v>1521499775522</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E267" s="0" t="n">
         <v>15</v>
@@ -4178,10 +4178,10 @@
         <v>1521499775522</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E268" s="0" t="n">
         <v>1</v>
@@ -4192,10 +4192,10 @@
         <v>1521499775531</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E269" s="0" t="n">
         <v>5</v>
@@ -4206,10 +4206,10 @@
         <v>1521499775531</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>7</v>
@@ -4220,7 +4220,7 @@
         <v>1521499775563</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>71</v>
@@ -4234,7 +4234,7 @@
         <v>1521499775563</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>72</v>
@@ -4248,7 +4248,7 @@
         <v>1521499775586</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>72</v>
@@ -4262,7 +4262,7 @@
         <v>1521499775586</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>73</v>
@@ -4276,7 +4276,7 @@
         <v>1521499775652</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>73</v>
@@ -4290,7 +4290,7 @@
         <v>1521499775653</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>74</v>
@@ -4304,7 +4304,7 @@
         <v>1521499775654</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>74</v>
@@ -4318,7 +4318,7 @@
         <v>1521499775655</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>74</v>
@@ -4332,7 +4332,7 @@
         <v>1521499775656</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>74</v>
@@ -4346,7 +4346,7 @@
         <v>1521499775657</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>74</v>
@@ -4360,7 +4360,7 @@
         <v>1521499775658</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>74</v>
@@ -4374,7 +4374,7 @@
         <v>1521499775659</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>74</v>
@@ -4388,7 +4388,7 @@
         <v>1521499775660</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>74</v>
@@ -4402,7 +4402,7 @@
         <v>1521499775661</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>74</v>
@@ -4416,7 +4416,7 @@
         <v>1521499775662</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>74</v>
@@ -4430,7 +4430,7 @@
         <v>1521499775663</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>74</v>
@@ -4444,7 +4444,7 @@
         <v>1521499775664</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>74</v>
@@ -4458,7 +4458,7 @@
         <v>1521499775665</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>74</v>
@@ -4472,7 +4472,7 @@
         <v>1521499775666</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>74</v>
@@ -4486,7 +4486,7 @@
         <v>1521499775667</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>74</v>
@@ -4500,7 +4500,7 @@
         <v>1521499775668</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>74</v>
@@ -4513,8 +4513,8 @@
       <c r="A292" s="2" t="n">
         <v>1521499775669</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>75</v>
+      <c r="B292" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>74</v>
@@ -4527,8 +4527,8 @@
       <c r="A293" s="2" t="n">
         <v>1521499775670</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>75</v>
+      <c r="B293" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>74</v>
@@ -4541,8 +4541,8 @@
       <c r="A294" s="2" t="n">
         <v>1521499775671</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>75</v>
+      <c r="B294" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>74</v>
@@ -4556,7 +4556,7 @@
         <v>1521499775672</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>74</v>
@@ -4570,7 +4570,7 @@
         <v>1521499775673</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>74</v>
@@ -4584,7 +4584,7 @@
         <v>1521499775674</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>74</v>
@@ -4598,7 +4598,7 @@
         <v>1521499775675</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>74</v>
@@ -4612,7 +4612,7 @@
         <v>1521499775676</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>74</v>
@@ -4626,7 +4626,7 @@
         <v>1521499775677</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>74</v>
@@ -4640,7 +4640,7 @@
         <v>1521499775678</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>74</v>
@@ -4653,6 +4653,9 @@
       <c r="A302" s="2" t="n">
         <v>1521499775679</v>
       </c>
+      <c r="B302" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C302" s="1" t="s">
         <v>74</v>
       </c>
@@ -4664,6 +4667,9 @@
       <c r="A303" s="2" t="n">
         <v>1521499775680</v>
       </c>
+      <c r="B303" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C303" s="1" t="s">
         <v>74</v>
       </c>
@@ -4675,6 +4681,9 @@
       <c r="A304" s="2" t="n">
         <v>1521499775681</v>
       </c>
+      <c r="B304" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C304" s="1" t="s">
         <v>74</v>
       </c>
@@ -4686,6 +4695,9 @@
       <c r="A305" s="2" t="n">
         <v>1521499775682</v>
       </c>
+      <c r="B305" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>74</v>
       </c>
@@ -4697,6 +4709,9 @@
       <c r="A306" s="2" t="n">
         <v>1521499775683</v>
       </c>
+      <c r="B306" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C306" s="1" t="s">
         <v>74</v>
       </c>
@@ -4708,6 +4723,9 @@
       <c r="A307" s="2" t="n">
         <v>1521499775684</v>
       </c>
+      <c r="B307" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C307" s="1" t="s">
         <v>74</v>
       </c>
@@ -4719,6 +4737,9 @@
       <c r="A308" s="2" t="n">
         <v>1521499775685</v>
       </c>
+      <c r="B308" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C308" s="1" t="s">
         <v>74</v>
       </c>
@@ -4730,8 +4751,11 @@
       <c r="A309" s="2" t="n">
         <v>1521499775686</v>
       </c>
+      <c r="B309" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C309" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E309" s="0" t="n">
         <v>1</v>
@@ -4741,8 +4765,11 @@
       <c r="A310" s="2" t="n">
         <v>1521499775687</v>
       </c>
+      <c r="B310" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C310" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E310" s="0" t="n">
         <v>1</v>
@@ -4752,8 +4779,11 @@
       <c r="A311" s="2" t="n">
         <v>1521499775688</v>
       </c>
+      <c r="B311" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C311" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E311" s="0" t="n">
         <v>1</v>
@@ -4763,8 +4793,11 @@
       <c r="A312" s="2" t="n">
         <v>1521499775689</v>
       </c>
+      <c r="B312" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C312" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E312" s="0" t="n">
         <v>1</v>
@@ -4774,8 +4807,11 @@
       <c r="A313" s="2" t="n">
         <v>1521499775690</v>
       </c>
+      <c r="B313" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C313" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E313" s="0" t="n">
         <v>2</v>
@@ -4785,8 +4821,11 @@
       <c r="A314" s="2" t="n">
         <v>1521499775690</v>
       </c>
+      <c r="B314" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C314" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E314" s="0" t="n">
         <v>48</v>
@@ -4796,8 +4835,11 @@
       <c r="A315" s="2" t="n">
         <v>1521499775740</v>
       </c>
+      <c r="B315" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C315" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E315" s="0" t="n">
         <v>16</v>
@@ -4807,8 +4849,11 @@
       <c r="A316" s="2" t="n">
         <v>1521499775740</v>
       </c>
+      <c r="B316" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C316" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E316" s="0" t="n">
         <v>3</v>
@@ -4818,8 +4863,11 @@
       <c r="A317" s="2" t="n">
         <v>1521499775759</v>
       </c>
+      <c r="B317" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C317" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E317" s="0" t="n">
         <v>1</v>
@@ -4829,8 +4877,11 @@
       <c r="A318" s="2" t="n">
         <v>1521499775759</v>
       </c>
+      <c r="B318" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C318" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E318" s="0" t="n">
         <v>3</v>
@@ -4840,8 +4891,11 @@
       <c r="A319" s="2" t="n">
         <v>1521499775759</v>
       </c>
+      <c r="B319" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C319" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E319" s="0" t="n">
         <v>9</v>
@@ -4851,8 +4905,11 @@
       <c r="A320" s="2" t="n">
         <v>1521499775760</v>
       </c>
+      <c r="B320" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D320" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E320" s="0" t="n">
         <v>3</v>
@@ -4862,8 +4919,11 @@
       <c r="A321" s="2" t="n">
         <v>1521499775760</v>
       </c>
+      <c r="B321" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D321" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E321" s="0" t="n">
         <v>2</v>
@@ -4873,8 +4933,11 @@
       <c r="A322" s="2" t="n">
         <v>1521499775761</v>
       </c>
+      <c r="B322" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D322" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E322" s="0" t="n">
         <v>1</v>
@@ -4884,8 +4947,11 @@
       <c r="A323" s="2" t="n">
         <v>1521499775761</v>
       </c>
+      <c r="B323" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D323" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E323" s="0" t="n">
         <v>4</v>
@@ -4895,8 +4961,11 @@
       <c r="A324" s="2" t="n">
         <v>1521499775761</v>
       </c>
+      <c r="B324" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D324" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E324" s="0" t="n">
         <v>2</v>
@@ -4906,6 +4975,9 @@
       <c r="A325" s="2" t="n">
         <v>1521499775762</v>
       </c>
+      <c r="B325" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D325" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,6 +4989,9 @@
       <c r="A326" s="2" t="n">
         <v>1521499775762</v>
       </c>
+      <c r="B326" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D326" s="1" t="s">
         <v>91</v>
       </c>
@@ -4928,6 +5003,9 @@
       <c r="A327" s="2" t="n">
         <v>1521499775763</v>
       </c>
+      <c r="B327" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D327" s="1" t="s">
         <v>92</v>
       </c>
@@ -4939,6 +5017,9 @@
       <c r="A328" s="2" t="n">
         <v>1521499775764</v>
       </c>
+      <c r="B328" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D328" s="0" t="s">
         <v>93</v>
       </c>
@@ -4950,6 +5031,9 @@
       <c r="A329" s="2" t="n">
         <v>1521499775764</v>
       </c>
+      <c r="B329" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D329" s="0" t="s">
         <v>94</v>
       </c>
@@ -4961,6 +5045,9 @@
       <c r="A330" s="2" t="n">
         <v>1521499775765</v>
       </c>
+      <c r="B330" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D330" s="1" t="s">
         <v>90</v>
       </c>
@@ -4972,6 +5059,9 @@
       <c r="A331" s="2" t="n">
         <v>1521499775766</v>
       </c>
+      <c r="B331" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D331" s="0" t="s">
         <v>91</v>
       </c>
@@ -4982,6 +5072,9 @@
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="n">
         <v>1521499775766</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D332" s="0" t="s">
         <v>92</v>

--- a/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PAYMENT_COUNT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="429">
   <si>
     <t xml:space="preserve">PAYMENT_ID</t>
   </si>
@@ -37,168 +37,906 @@
     <t xml:space="preserve">COUNT</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499716169</t>
+  </si>
+  <si>
     <t xml:space="preserve">152148892479134</t>
   </si>
   <si>
     <t xml:space="preserve">1521490370231</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774014</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521490415105</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774054</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521490424549</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774178</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521490438489</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774185</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149194727035</t>
   </si>
   <si>
     <t xml:space="preserve">1521492233183</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774188</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521492257804</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774190</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521492295702</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774195</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521492309553</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774225</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521492320354</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774265</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521492346195</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774335</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149475182637</t>
   </si>
   <si>
     <t xml:space="preserve">1521495370465</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774361</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495459188</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774371</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495471729</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774376</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495494678</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774406</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495569163</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774410</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495588268</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774413</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495608116</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774414</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495642830</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774415</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521495669310</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774421</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149361323936</t>
   </si>
   <si>
     <t xml:space="preserve">1521494201536</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774422</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521494288956</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774490</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521494376168</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774520</t>
+  </si>
+  <si>
     <t xml:space="preserve">152144867971845</t>
   </si>
   <si>
     <t xml:space="preserve">1521450250551</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774551</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521450380588</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774589</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521450424014</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774628</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149818635040</t>
   </si>
   <si>
     <t xml:space="preserve">1521498355788</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774753</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521498381048</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774768</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149588003738</t>
   </si>
   <si>
     <t xml:space="preserve">1521496061615</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774772</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521496145024</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774775</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521496163982</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774779</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521496178822</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774781</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521496193880</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774782</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521496226678</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774783</t>
+  </si>
+  <si>
     <t xml:space="preserve">152145388031846</t>
   </si>
   <si>
     <t xml:space="preserve">1521454582581</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774881</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454638006</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774937</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454669943</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499774964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499774976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775020</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454683162</t>
   </si>
   <si>
     <t xml:space="preserve">1521454699674</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775242</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454710255</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775397</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454733261</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775406</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521454744859</t>
   </si>
   <si>
     <t xml:space="preserve">1521454760902</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775418</t>
+  </si>
+  <si>
     <t xml:space="preserve">152145778182347</t>
   </si>
   <si>
     <t xml:space="preserve">1521458240010</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775432</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521503343596</t>
   </si>
   <si>
     <t xml:space="preserve">1521503358293</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775481</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521503373201</t>
   </si>
   <si>
@@ -208,6 +946,9 @@
     <t xml:space="preserve">1521503458395</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775486</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521503397413</t>
   </si>
   <si>
@@ -217,12 +958,18 @@
     <t xml:space="preserve">1521503440534</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775517</t>
+  </si>
+  <si>
     <t xml:space="preserve">152148536524733</t>
   </si>
   <si>
     <t xml:space="preserve">1521487912513</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775522</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521488339705</t>
   </si>
   <si>
@@ -232,6 +979,12 @@
     <t xml:space="preserve">1521488375822</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775563</t>
+  </si>
+  <si>
     <t xml:space="preserve">152145922056948</t>
   </si>
   <si>
@@ -241,15 +994,135 @@
     <t xml:space="preserve">1521484977939</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775586</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521484996728</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775653</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521485021620</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775686</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521485030413</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775690</t>
+  </si>
+  <si>
     <t xml:space="preserve">152149749486339</t>
   </si>
   <si>
@@ -259,15 +1132,24 @@
     <t xml:space="preserve">1521498006530</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775740</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521498024572</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775759</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521498034297</t>
   </si>
   <si>
     <t xml:space="preserve">1521498048285</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775760</t>
+  </si>
+  <si>
     <t xml:space="preserve">152154108741610</t>
   </si>
   <si>
@@ -277,6 +1159,9 @@
     <t xml:space="preserve">1521541350504</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775761</t>
+  </si>
+  <si>
     <t xml:space="preserve">152159737628112</t>
   </si>
   <si>
@@ -289,6 +1174,9 @@
     <t xml:space="preserve">1521597641121</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775762</t>
+  </si>
+  <si>
     <t xml:space="preserve">152183749892742</t>
   </si>
   <si>
@@ -298,13 +1186,127 @@
     <t xml:space="preserve">1521838435516</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775763</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521838677935</t>
   </si>
   <si>
+    <t xml:space="preserve">1521499775764</t>
+  </si>
+  <si>
     <t xml:space="preserve">1521838714876</t>
   </si>
   <si>
     <t xml:space="preserve">1521838730541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521499775766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152192366633051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924080533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924069202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924120307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924145379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924137497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924154370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924193857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152192435440652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924579944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924654138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924664243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924354426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1521924675935</t>
   </si>
 </sst>
 </file>
@@ -417,19 +1419,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A298" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B332" activeCellId="0" sqref="B332"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A325" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B343" activeCellId="0" sqref="B343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="12.78"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.809756097561"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5219512195122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3609756097561"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9073170731707"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.7121951219512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,4643 +1452,4923 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1521499716169</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1521499774005</v>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1521499774014</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>1521499774025</v>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>1521499774054</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>1521499774087</v>
+      <c r="A7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>1521499774088</v>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>1521499774089</v>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>1521499774090</v>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>1521499774091</v>
+      <c r="A11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>1521499774092</v>
+      <c r="A12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>1521499774093</v>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>1521499774094</v>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>1521499774095</v>
+      <c r="A15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>1521499774096</v>
+      <c r="A16" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>1521499774097</v>
+      <c r="A17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>1521499774098</v>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>1521499774099</v>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>1521499774100</v>
+      <c r="A20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>1521499774101</v>
+      <c r="A21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>1521499774102</v>
+      <c r="A22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>1521499774103</v>
+      <c r="A23" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>1521499774104</v>
+      <c r="A24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>1521499774105</v>
+      <c r="A25" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>1521499774106</v>
+      <c r="A26" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>1521499774107</v>
+      <c r="A27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>1521499774108</v>
+      <c r="A28" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>1521499774109</v>
+      <c r="A29" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>1521499774110</v>
+      <c r="A30" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>1521499774111</v>
+      <c r="A31" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>1521499774112</v>
+      <c r="A32" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>1521499774113</v>
+      <c r="A33" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>1521499774114</v>
+      <c r="A34" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>1521499774115</v>
+      <c r="A35" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>1521499774116</v>
+      <c r="A36" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>1521499774117</v>
+      <c r="A37" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>1521499774118</v>
+      <c r="A38" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
-        <v>1521499774119</v>
+      <c r="A39" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
-        <v>1521499774120</v>
+      <c r="A40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>1521499774121</v>
+      <c r="A41" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
-        <v>1521499774122</v>
+      <c r="A42" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
-        <v>1521499774123</v>
+      <c r="A43" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
-        <v>1521499774124</v>
+      <c r="A44" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <v>1521499774125</v>
+      <c r="A45" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
-        <v>1521499774126</v>
+      <c r="A46" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>1521499774127</v>
+      <c r="A47" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
-        <v>1521499774128</v>
+      <c r="A48" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
-        <v>1521499774129</v>
+      <c r="A49" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
-        <v>1521499774130</v>
+      <c r="A50" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
-        <v>1521499774131</v>
+      <c r="A51" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <v>1521499774132</v>
+      <c r="A52" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
-        <v>1521499774133</v>
+      <c r="A53" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
-        <v>1521499774134</v>
+      <c r="A54" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
-        <v>1521499774135</v>
+      <c r="A55" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
-        <v>1521499774136</v>
+      <c r="A56" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
-        <v>1521499774137</v>
+      <c r="A57" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
-        <v>1521499774138</v>
+      <c r="A58" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
-        <v>1521499774139</v>
+      <c r="A59" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
-        <v>1521499774140</v>
+      <c r="A60" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
-        <v>1521499774141</v>
+      <c r="A61" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
-        <v>1521499774142</v>
+      <c r="A62" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
-        <v>1521499774143</v>
+      <c r="A63" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
-        <v>1521499774144</v>
+      <c r="A64" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
-        <v>1521499774145</v>
+      <c r="A65" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
-        <v>1521499774146</v>
+      <c r="A66" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
-        <v>1521499774147</v>
+      <c r="A67" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
-        <v>1521499774148</v>
+      <c r="A68" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
-        <v>1521499774149</v>
+      <c r="A69" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
-        <v>1521499774150</v>
+      <c r="A70" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
-        <v>1521499774151</v>
+      <c r="A71" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
-        <v>1521499774152</v>
+      <c r="A72" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
-        <v>1521499774178</v>
+      <c r="A73" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
-        <v>1521499774185</v>
+      <c r="A74" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
-        <v>1521499774186</v>
+      <c r="A75" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
-        <v>1521499774187</v>
+      <c r="A76" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
-        <v>1521499774188</v>
+      <c r="A77" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
-        <v>1521499774189</v>
+      <c r="A78" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
-        <v>1521499774190</v>
+      <c r="A79" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
-        <v>1521499774191</v>
+      <c r="A80" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
-        <v>1521499774192</v>
+      <c r="A81" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
-        <v>1521499774193</v>
+      <c r="A82" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
-        <v>1521499774194</v>
+      <c r="A83" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
-        <v>1521499774195</v>
+      <c r="A84" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
-        <v>1521499774196</v>
+      <c r="A85" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
-        <v>1521499774197</v>
+      <c r="A86" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
-        <v>1521499774198</v>
+      <c r="A87" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
-        <v>1521499774199</v>
+      <c r="A88" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
-        <v>1521499774225</v>
+      <c r="A89" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
-        <v>1521499774226</v>
+      <c r="A90" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
-        <v>1521499774227</v>
+      <c r="A91" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
-        <v>1521499774228</v>
+      <c r="A92" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
-        <v>1521499774229</v>
+      <c r="A93" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
-        <v>1521499774230</v>
+      <c r="A94" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
-        <v>1521499774231</v>
+      <c r="A95" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
-        <v>1521499774232</v>
+      <c r="A96" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
-        <v>1521499774233</v>
+      <c r="A97" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
-        <v>1521499774234</v>
+      <c r="A98" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
-        <v>1521499774235</v>
+      <c r="A99" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
-        <v>1521499774236</v>
+      <c r="A100" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
-        <v>1521499774237</v>
+      <c r="A101" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
-        <v>1521499774238</v>
+      <c r="A102" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E102" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
-        <v>1521499774239</v>
+      <c r="A103" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
-        <v>1521499774265</v>
+      <c r="A104" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
-        <v>1521499774266</v>
+      <c r="A105" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
-        <v>1521499774267</v>
+      <c r="A106" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
-        <v>1521499774268</v>
+      <c r="A107" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
-        <v>1521499774269</v>
+      <c r="A108" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
-        <v>1521499774270</v>
+      <c r="A109" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
-        <v>1521499774271</v>
+      <c r="A110" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
-        <v>1521499774272</v>
+      <c r="A111" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
-        <v>1521499774273</v>
+      <c r="A112" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
-        <v>1521499774274</v>
+      <c r="A113" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
-        <v>1521499774275</v>
+      <c r="A114" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
-        <v>1521499774276</v>
+      <c r="A115" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
-        <v>1521499774277</v>
+      <c r="A116" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
-        <v>1521499774278</v>
+      <c r="A117" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
-        <v>1521499774279</v>
+      <c r="A118" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
-        <v>1521499774305</v>
+      <c r="A119" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
-        <v>1521499774306</v>
+      <c r="A120" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
-        <v>1521499774307</v>
+      <c r="A121" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
-        <v>1521499774308</v>
+      <c r="A122" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
-        <v>1521499774309</v>
+      <c r="A123" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
-        <v>1521499774310</v>
+      <c r="A124" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
-        <v>1521499774311</v>
+      <c r="A125" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
-        <v>1521499774312</v>
+      <c r="A126" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
-        <v>1521499774313</v>
+      <c r="A127" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
-        <v>1521499774314</v>
+      <c r="A128" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
-        <v>1521499774315</v>
+      <c r="A129" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
-        <v>1521499774316</v>
+      <c r="A130" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
-        <v>1521499774317</v>
+      <c r="A131" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
-        <v>1521499774318</v>
+      <c r="A132" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
-        <v>1521499774319</v>
+      <c r="A133" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
-        <v>1521499774335</v>
+      <c r="A134" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
-        <v>1521499774361</v>
+      <c r="A135" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E135" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
-        <v>1521499774362</v>
+      <c r="A136" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
-        <v>1521499774363</v>
+      <c r="A137" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
-        <v>1521499774364</v>
+      <c r="A138" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
-        <v>1521499774365</v>
+      <c r="A139" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
-        <v>1521499774366</v>
+      <c r="A140" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
-        <v>1521499774367</v>
+      <c r="A141" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
-        <v>1521499774368</v>
+      <c r="A142" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
-        <v>1521499774369</v>
+      <c r="A143" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
-        <v>1521499774370</v>
+      <c r="A144" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
-        <v>1521499774371</v>
+      <c r="A145" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
-        <v>1521499774372</v>
+      <c r="A146" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
-        <v>1521499774373</v>
+      <c r="A147" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
-        <v>1521499774374</v>
+      <c r="A148" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
-        <v>1521499774375</v>
+      <c r="A149" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
-        <v>1521499774376</v>
+      <c r="A150" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
-        <v>1521499774377</v>
+      <c r="A151" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
-        <v>1521499774378</v>
+      <c r="A152" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
-        <v>1521499774379</v>
+      <c r="A153" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E153" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
-        <v>1521499774380</v>
+      <c r="A154" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
-        <v>1521499774406</v>
+      <c r="A155" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
-        <v>1521499774407</v>
+      <c r="A156" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
-        <v>1521499774408</v>
+      <c r="A157" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
-        <v>1521499774409</v>
+      <c r="A158" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
-        <v>1521499774410</v>
+      <c r="A159" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
-        <v>1521499774411</v>
+      <c r="A160" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E160" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
-        <v>1521499774412</v>
+      <c r="A161" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
-        <v>1521499774413</v>
+      <c r="A162" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
-        <v>1521499774414</v>
+      <c r="A163" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E163" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
-        <v>1521499774415</v>
+      <c r="A164" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E164" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
-        <v>1521499774416</v>
+      <c r="A165" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
-        <v>1521499774417</v>
+      <c r="A166" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E166" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
-        <v>1521499774418</v>
+      <c r="A167" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
-        <v>1521499774419</v>
+      <c r="A168" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
-        <v>1521499774420</v>
+      <c r="A169" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="E169" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
-        <v>1521499774421</v>
+      <c r="A170" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="E170" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
-        <v>1521499774422</v>
+      <c r="A171" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="E171" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
-        <v>1521499774423</v>
+      <c r="A172" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
-        <v>1521499774424</v>
+      <c r="A173" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="E173" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
-        <v>1521499774425</v>
+      <c r="A174" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>65</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="n">
-        <v>1521499774490</v>
+      <c r="A175" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="E175" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="n">
-        <v>1521499774520</v>
+      <c r="A176" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="E176" s="0" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="n">
-        <v>1521499774551</v>
+      <c r="A177" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="n">
-        <v>1521499774589</v>
+      <c r="A178" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="E178" s="0" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="n">
-        <v>1521499774628</v>
+      <c r="A179" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E179" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="n">
-        <v>1521499774630</v>
+      <c r="A180" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E180" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="n">
-        <v>1521499774656</v>
+      <c r="A181" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E181" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="n">
-        <v>1521499774688</v>
+      <c r="A182" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="n">
-        <v>1521499774689</v>
+      <c r="A183" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="n">
-        <v>1521499774711</v>
+      <c r="A184" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="n">
-        <v>1521499774722</v>
+      <c r="A185" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E185" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="n">
-        <v>1521499774748</v>
+      <c r="A186" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="n">
-        <v>1521499774749</v>
+      <c r="A187" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="n">
-        <v>1521499774750</v>
+      <c r="A188" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E188" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="n">
-        <v>1521499774751</v>
+      <c r="A189" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="n">
-        <v>1521499774752</v>
+      <c r="A190" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="E190" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="n">
-        <v>1521499774753</v>
+      <c r="A191" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="n">
-        <v>1521499774754</v>
+      <c r="A192" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="n">
-        <v>1521499774755</v>
+      <c r="A193" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E193" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="n">
-        <v>1521499774756</v>
+      <c r="A194" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E194" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="n">
-        <v>1521499774757</v>
+      <c r="A195" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="n">
-        <v>1521499774758</v>
+      <c r="A196" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E196" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="n">
-        <v>1521499774759</v>
+      <c r="A197" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="n">
-        <v>1521499774760</v>
+      <c r="A198" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E198" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="n">
-        <v>1521499774761</v>
+      <c r="A199" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="n">
-        <v>1521499774762</v>
+      <c r="A200" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E200" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="n">
-        <v>1521499774763</v>
+      <c r="A201" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E201" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="n">
-        <v>1521499774764</v>
+      <c r="A202" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E202" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="n">
-        <v>1521499774765</v>
+      <c r="A203" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E203" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="n">
-        <v>1521499774766</v>
+      <c r="A204" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="n">
-        <v>1521499774767</v>
+      <c r="A205" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="n">
-        <v>1521499774768</v>
+      <c r="A206" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="n">
-        <v>1521499774769</v>
+      <c r="A207" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="E207" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="n">
-        <v>1521499774770</v>
+      <c r="A208" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="n">
-        <v>1521499774771</v>
+      <c r="A209" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="E209" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="n">
-        <v>1521499774772</v>
+      <c r="A210" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="n">
-        <v>1521499774773</v>
+      <c r="A211" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="E211" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="n">
-        <v>1521499774774</v>
+      <c r="A212" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="E212" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="n">
-        <v>1521499774775</v>
+      <c r="A213" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E213" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="n">
-        <v>1521499774776</v>
+      <c r="A214" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E214" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="n">
-        <v>1521499774777</v>
+      <c r="A215" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E215" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="n">
-        <v>1521499774778</v>
+      <c r="A216" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="E216" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="n">
-        <v>1521499774779</v>
+      <c r="A217" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="E217" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="n">
-        <v>1521499774780</v>
+      <c r="A218" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="E218" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="n">
-        <v>1521499774781</v>
+      <c r="A219" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="E219" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="n">
-        <v>1521499774782</v>
+      <c r="A220" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="E220" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="n">
-        <v>1521499774783</v>
+      <c r="A221" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E221" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="n">
-        <v>1521499774806</v>
+      <c r="A222" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E222" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="n">
-        <v>1521499774813</v>
+      <c r="A223" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E223" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="n">
-        <v>1521499774847</v>
+      <c r="A224" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E224" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="n">
-        <v>1521499774861</v>
+      <c r="A225" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E225" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="n">
-        <v>1521499774881</v>
+      <c r="A226" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="n">
-        <v>1521499774881</v>
+      <c r="A227" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="E227" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="n">
-        <v>1521499774909</v>
+      <c r="A228" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="E228" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="n">
-        <v>1521499774937</v>
+      <c r="A229" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E229" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="n">
-        <v>1521499774964</v>
+      <c r="A230" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="n">
-        <v>1521499774976</v>
+      <c r="A231" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E231" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="n">
-        <v>1521499775002</v>
+      <c r="A232" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="n">
-        <v>1521499775010</v>
+      <c r="A233" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="n">
-        <v>1521499775011</v>
+      <c r="A234" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="n">
-        <v>1521499775020</v>
+      <c r="A235" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="n">
-        <v>1521499775020</v>
+      <c r="A236" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="n">
-        <v>1521499775020</v>
+      <c r="A237" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="E237" s="0" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="n">
-        <v>1521499775146</v>
+      <c r="A238" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="E238" s="0" t="n">
         <v>96</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="n">
-        <v>1521499775242</v>
+      <c r="A239" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="E239" s="0" t="n">
         <v>63</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="n">
-        <v>1521499775242</v>
+      <c r="A240" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="E240" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="n">
-        <v>1521499775326</v>
+      <c r="A241" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="E241" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="n">
-        <v>1521499775396</v>
+      <c r="A242" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="E242" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="n">
-        <v>1521499775397</v>
+      <c r="A243" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="E243" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="n">
-        <v>1521499775406</v>
+      <c r="A244" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="E244" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="n">
-        <v>1521499775406</v>
+      <c r="A245" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>53</v>
+        <v>292</v>
       </c>
       <c r="E245" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="n">
-        <v>1521499775406</v>
+      <c r="A246" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="E246" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="n">
-        <v>1521499775414</v>
+      <c r="A247" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="E247" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="n">
-        <v>1521499775418</v>
+      <c r="A248" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="E248" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="n">
-        <v>1521499775424</v>
+      <c r="A249" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="E249" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="n">
-        <v>1521499775432</v>
+      <c r="A250" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>56</v>
+        <v>297</v>
       </c>
       <c r="E250" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="n">
-        <v>1521499775432</v>
+      <c r="A251" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="E251" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="n">
-        <v>1521499775432</v>
+      <c r="A252" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="E252" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="n">
-        <v>1521499775442</v>
+      <c r="A253" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="E253" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="n">
-        <v>1521499775450</v>
+      <c r="A254" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="E254" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="n">
-        <v>1521499775481</v>
+      <c r="A255" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="E255" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="n">
-        <v>1521499775481</v>
+      <c r="A256" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="E256" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="n">
-        <v>1521499775481</v>
+      <c r="A257" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="E257" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A258" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="E258" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A259" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="E259" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A260" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="E260" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A261" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="E261" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A262" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="E262" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="n">
-        <v>1521499775486</v>
+      <c r="A263" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="E263" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="n">
-        <v>1521499775517</v>
+      <c r="A264" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="E264" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="n">
-        <v>1521499775522</v>
+      <c r="A265" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="E265" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="n">
-        <v>1521499775522</v>
+      <c r="A266" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="E266" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="n">
-        <v>1521499775522</v>
+      <c r="A267" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="E267" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="n">
-        <v>1521499775522</v>
+      <c r="A268" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="E268" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="n">
-        <v>1521499775531</v>
+      <c r="A269" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="E269" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="n">
-        <v>1521499775531</v>
+      <c r="A270" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="E270" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="n">
-        <v>1521499775563</v>
+      <c r="A271" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="E271" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="n">
-        <v>1521499775563</v>
+      <c r="A272" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="E272" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="n">
-        <v>1521499775586</v>
+      <c r="A273" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="E273" s="0" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="n">
-        <v>1521499775586</v>
+      <c r="A274" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="E274" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="n">
-        <v>1521499775652</v>
+      <c r="A275" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="E275" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="n">
-        <v>1521499775653</v>
+      <c r="A276" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E276" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="n">
-        <v>1521499775654</v>
+      <c r="A277" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E277" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="n">
-        <v>1521499775655</v>
+      <c r="A278" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E278" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="n">
-        <v>1521499775656</v>
+      <c r="A279" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E279" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="n">
-        <v>1521499775657</v>
+      <c r="A280" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E280" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="n">
-        <v>1521499775658</v>
+      <c r="A281" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E281" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="n">
-        <v>1521499775659</v>
+      <c r="A282" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E282" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="n">
-        <v>1521499775660</v>
+      <c r="A283" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E283" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="n">
-        <v>1521499775661</v>
+      <c r="A284" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E284" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="n">
-        <v>1521499775662</v>
+      <c r="A285" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E285" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="n">
-        <v>1521499775663</v>
+      <c r="A286" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E286" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="n">
-        <v>1521499775664</v>
+      <c r="A287" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E287" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="n">
-        <v>1521499775665</v>
+      <c r="A288" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E288" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="n">
-        <v>1521499775666</v>
+      <c r="A289" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E289" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="n">
-        <v>1521499775667</v>
+      <c r="A290" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E290" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="n">
-        <v>1521499775668</v>
+      <c r="A291" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E291" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="n">
-        <v>1521499775669</v>
+      <c r="A292" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E292" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="n">
-        <v>1521499775670</v>
+      <c r="A293" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E293" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="n">
-        <v>1521499775671</v>
+      <c r="A294" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E294" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="n">
-        <v>1521499775672</v>
+      <c r="A295" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E295" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="n">
-        <v>1521499775673</v>
+      <c r="A296" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E296" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="n">
-        <v>1521499775674</v>
+      <c r="A297" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E297" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="n">
-        <v>1521499775675</v>
+      <c r="A298" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E298" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="n">
-        <v>1521499775676</v>
+      <c r="A299" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E299" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="n">
-        <v>1521499775677</v>
+      <c r="A300" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E300" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="n">
-        <v>1521499775678</v>
+      <c r="A301" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E301" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="n">
-        <v>1521499775679</v>
+      <c r="A302" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E302" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="n">
-        <v>1521499775680</v>
+      <c r="A303" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E303" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="n">
-        <v>1521499775681</v>
+      <c r="A304" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E304" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="n">
-        <v>1521499775682</v>
+      <c r="A305" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E305" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="n">
-        <v>1521499775683</v>
+      <c r="A306" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E306" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="n">
-        <v>1521499775684</v>
+      <c r="A307" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E307" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="n">
-        <v>1521499775685</v>
+      <c r="A308" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E308" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="n">
-        <v>1521499775686</v>
+      <c r="A309" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="E309" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="n">
-        <v>1521499775687</v>
+      <c r="A310" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="E310" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="n">
-        <v>1521499775688</v>
+      <c r="A311" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="E311" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="n">
-        <v>1521499775689</v>
+      <c r="A312" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>70</v>
+        <v>321</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="E312" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="n">
-        <v>1521499775690</v>
+      <c r="A313" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="E313" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="n">
-        <v>1521499775690</v>
+      <c r="A314" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="E314" s="0" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="n">
-        <v>1521499775740</v>
+      <c r="A315" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="E315" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="n">
-        <v>1521499775740</v>
+      <c r="A316" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="E316" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="n">
-        <v>1521499775759</v>
+      <c r="A317" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="E317" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="n">
-        <v>1521499775759</v>
+      <c r="A318" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="E318" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="n">
-        <v>1521499775759</v>
+      <c r="A319" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="E319" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="n">
-        <v>1521499775760</v>
+      <c r="A320" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="E320" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="n">
-        <v>1521499775760</v>
+      <c r="A321" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>84</v>
+        <v>378</v>
       </c>
       <c r="E321" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="n">
-        <v>1521499775761</v>
+      <c r="A322" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="E322" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="n">
-        <v>1521499775761</v>
+      <c r="A323" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
       <c r="E323" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="n">
-        <v>1521499775761</v>
+      <c r="A324" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="E324" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="n">
-        <v>1521499775762</v>
+      <c r="A325" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="E325" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="n">
-        <v>1521499775762</v>
+      <c r="A326" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="E326" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="n">
-        <v>1521499775763</v>
+      <c r="A327" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="E327" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="n">
-        <v>1521499775764</v>
+      <c r="A328" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="E328" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="n">
-        <v>1521499775764</v>
+      <c r="A329" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>94</v>
+        <v>392</v>
       </c>
       <c r="E329" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="n">
-        <v>1521499775765</v>
+      <c r="A330" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
       <c r="E330" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="n">
-        <v>1521499775766</v>
+      <c r="A331" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="E331" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="n">
-        <v>1521499775766</v>
+      <c r="A332" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="E332" s="0" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E333" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E334" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E335" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E336" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E337" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E339" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E341" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E342" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E343" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E346" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E347" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E348" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E352" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
